--- a/Results/Figure_data_appendix.xlsx
+++ b/Results/Figure_data_appendix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/kristof_phillips_kuleuven_be/Documents/ImportExportCurves/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{A41FFEE9-2EE2-4358-98E4-4670E091BBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73D3771-1798-455C-AD2E-D85B03105A6D}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{A41FFEE9-2EE2-4358-98E4-4670E091BBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8E8E12-52D3-4773-9725-AF59F9D76099}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2772" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="4" r:id="rId1"/>
@@ -425,23 +425,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47AAEFA-2313-4AD1-BB72-E6AE512BE753}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -467,7 +467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1497728729.0773649</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1414849930.5703449</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -548,7 +548,7 @@
         <v>1418246846.2431202</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1404807474.2869449</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -602,16 +602,31 @@
         <v>1419914594.759655</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7">
+        <v>941587697.46432257</v>
+      </c>
+      <c r="D7">
+        <v>3591150501.4401002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2257042463.39748</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1086268652.7751999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2831472117.6184201</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1415736058.8092101</v>
       </c>
     </row>
   </sheetData>
@@ -627,16 +642,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -659,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +697,7 @@
         <v>8399.6555599999992</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -705,7 +720,7 @@
         <v>8308.7260804264297</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -728,7 +743,7 @@
         <v>8293.9439175276693</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -751,7 +766,7 @@
         <v>8184.5308603521198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -774,12 +789,27 @@
         <v>8199.7237646916801</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="C7">
+        <v>3910.6728458022299</v>
+      </c>
+      <c r="D7">
+        <v>6229.5922825146499</v>
+      </c>
+      <c r="E7">
+        <v>16246.498303582401</v>
+      </c>
+      <c r="F7">
+        <v>14288.577898559701</v>
+      </c>
+      <c r="G7">
+        <v>8183.4311988073596</v>
       </c>
     </row>
   </sheetData>
@@ -795,17 +825,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -828,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -851,7 +881,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -874,7 +904,7 @@
         <v>34693010.378914803</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -897,7 +927,7 @@
         <v>34631287.591822602</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -920,7 +950,7 @@
         <v>34174434.364091098</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -943,12 +973,27 @@
         <v>34237872.198343404</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8668690.3226495702</v>
+      </c>
+      <c r="D7">
+        <v>662885.87678303698</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15651995.7245951</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38386359.914149404</v>
+      </c>
+      <c r="G7" s="1">
+        <v>34169842.737286098</v>
       </c>
     </row>
   </sheetData>
@@ -960,19 +1005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DF9AC8-E663-4D83-80AE-3C0BEC81A150}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1048,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1062,7 @@
         <v>31458782.1396854</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1076,7 @@
         <v>30818645.7212997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1090,7 @@
         <v>30283853.786854301</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1059,24 +1104,28 @@
         <v>30916298.763436899</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>25623031.085676901</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30644403.180318601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
   </sheetData>
